--- a/Datascraping/output_excel_files_new/Vellore Institute of Technology_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Vellore Institute of Technology_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,27 +520,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UG [4 Years Program(s)]</t>
+          <t>UG [3 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7620</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>860</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7620</t>
+          <t>785</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7100</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,27 +563,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7100</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -606,32 +606,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PG-Integrated</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>340</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>340</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>340</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>340</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>340</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -649,42 +649,128 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>PG [2 Year Program(s)]</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2466</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PG-Integrated</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Outside Country@@ -692,7 +778,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Economically Backward@@ -700,7 +786,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -709,7 +795,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -720,7 +806,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -730,7 +816,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -740,7 +826,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -750,247 +836,383 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UG [3 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3194</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2623</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2528</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3122</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>26375</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>6756</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>33131</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>6740</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>25101</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1290</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>10416</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>8926</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>252</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>19081</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UG [5 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1827</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>963</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2790</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>818</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2810</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PG-Integrated</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3249</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2717</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1296</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2794</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>953</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1265</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2218</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PG-Integrated</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2958</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1519</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4477</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2040</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2432</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1296</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2292</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3572</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -998,13 +1220,13 @@
 time</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1012,223 +1234,238 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6283</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6009</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>2017-18</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>5500</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>3439</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>650000(Six Lakh Fifty-Thousand)</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6883</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5522</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>382500(Three Lakh+Eighty Two Thousand+Five Hundred)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>5294</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>3327</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>650000(Six Lakh Fifty-Thousand)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1024</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7100</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>6435</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>300000(Three Lakh)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>6177</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>4199</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>810000(Eight Lakh-Ten Thousand)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>957</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>382500(Three Lakh+Eighty Two Thousand+Five Hundred)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1236,199 +1473,237 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6283</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6009</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5500</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>650000(Six Lakh Fifty+Thousand)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6883</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1771</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1481</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>5294</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3327</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>650000(Six Lakh Fifty+Thousand)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6435</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1443</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>548</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>600000(Six Lakh)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1788</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1354</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1329</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>698</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>545000(Five Lakh-Forty Five Thousand)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1521</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1468</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1415</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>888</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>800000(Eight Lakh)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6177</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4199</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>810000(Eight Lakh+Ten Thousand)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1436,195 +1711,69 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2015-16</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>578</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>600000(Six Lakh)</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>632</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>410</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>450000(Four Lakh Fifty-Thousand)</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>660</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>683</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>700000(Seven Lakh)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>730000(Seven Lakh+Thirty Thousand)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1632,22 +1781,54 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1553</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>800000(Eight Lakh)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1655,22 +1836,54 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>599</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>300000(Three Lakh)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
@@ -1678,16 +1891,55 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No. of first year+students intake in the+year</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No. of first year+students admitted in+the year</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1695,15 +1947,19 @@
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2038</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1711,10 +1967,27 @@
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>550000(Five Lakh Fifty+Thousand)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1724,28 +1997,45 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>469000(Four Lakh+Sixty Nine Thousand)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1755,28 +2045,44 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>2421</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2205</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2123</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>800000(Eight Lakh)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>99</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1786,28 +2092,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>No. of first year+students intake in the+year</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>No. of first year+students admitted in+the year</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No. of students graduating in minimum+stipulated time</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No. of students+placed</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Median salary of+placed graduates per+annum(Amount in+Rs.)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No. of students+selected for Higher+Studies</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1815,26 +2148,47 @@
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>780</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>752</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>560000(Five Lakh+Sixty Thousand)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1844,16 +2198,45 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>450000(Four Lakh Fifty+Thousand)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1863,31 +2246,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Library ( Books, Journals and e-Resources only)</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4271984 (Forty Two Lakh Seventy One Thousand Nine-Hundred and Eighty Four)</t>
+          <t>733</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>44181502 (Four Crore Forty One Lakh Eighty One Thousand-Five Hundred and Two)</t>
+          <t>812</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>23237129 (Two Crore Thirty Two Lakh Thirty Seven Thousand-One Hundred and Twenty Nine)</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>791</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>700000(Seven Lakh)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1897,27 +2293,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>New Equipment and software for Laboratories</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>152746414 (Fifteen Crore Twenty Seven Lakh Forty Six-Thousand Four Hundred Fourteen Rupees)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>166373813 (Sixteen Crore Sixty Three Lakh Seventy Three-Thousand Eight Hundred and Thirteen)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>588778004 (Fifty Eight Crore Eighty Seven Lakh Seventy Eight-Thousand and Four)</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1929,28 +2310,14 @@
       <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Engineering Workshops</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3942784 (Thirty Nine Lakh forty Two Thousand Seven hundred-eighty Four)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>3958151 (Thirty Nine Lakh Fifty Eight Thousand One Hundred-and Fifty One)</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4100478 (Forty One Lakh Four Hundred and Seventy Eight)</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1964,29 +2331,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (For setting up-classrooms, seminar hall, conference hall , library, Lab, Engg-workshops excluding expenditure on Land and Building)</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>418975781 (Forty One Crore Eighty Nine Lakh Seventy Five-Thousand Seven Hundred Eighty Two Rupees)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>231962703 (Twenty Three Crore Nineteen Lakh Sixty Two-Thousand Seven Hundred and Three)</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>145766665 (Fourteen Crore Fifty Seven Lakh Sixty Six-Thousand Six Hundred and Sixty Five)</t>
-        </is>
-      </c>
+          <t>2951</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -2000,24 +2354,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -2029,22 +2375,14 @@
       <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2056,14 +2394,22 @@
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -2077,25 +2423,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4102448117 (Four Hundred and Ten Crore Twenty Four Lakh-Forty Eight Thousand One Hundred and Seventeen)</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3548525786 (Three Hundred And Fifty Four Crore Eighty Five-Lakh Twenty Five Thousand Seven Hundred And Eighty Six)</t>
+          <t>215</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3072942536 (Three Hundred And Seven Crore Twenty Nine-Lakh Forty Two Thousand Five Hundred And Thirty Six)</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2111,27 +2454,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1102119354 (One Hundred And Ten Crore Twenty One Lakh-Nineteen Thousand Three Hundred And Fifty Four)</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>851752013 (Eighty Five Crore Seventeen Lakh Fifty Two-Thousand And Thirteen)</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2858115465 (Two Hundred And Eighty Five Crore Eighty One-Lakh Fifteen Thousand Four Hundred And Sixty Five)</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2147,25 +2485,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3781213 (Thirty Seven Lakh Eighty One Thousand Two-Hundred and Thirteen)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7816097 (Seventy Eight Lakh Sixteen Thousand and Ninety-Seven)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>24422440 (Two Crore Forty Four Lakh Twenty Two Thousand-Four Hundred and Forty)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2179,24 +2514,20 @@
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2212,24 +2543,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -2243,22 +2562,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Library</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>4272846 (Forty Two Lakh Seventy Two Thousand Eight+Hundred Forty Six)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44201502 (Four Crore Forty Two Lakh One Thousand Five+Hundred and Two)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24321245 (Two Crore Forty Three Lakh Twenty One Thousand+Two Hundred and Forty Five)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2274,22 +2596,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>New Equipment for Laboratories</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>225184388</t>
+          <t>152746414 (Fifteen Crore Twenty Seven Lakh Forty Six+Thousand Four Hundred Fourteen)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>117044496</t>
+          <t>166853459 (Sixteen Crore Sixty Eight Lakh Fifty Three+Thousand Four Hundred and Fifty Nine)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>92024003</t>
+          <t>588778004 (Fifty Eight Crore Eighty Seven Lakh Seventy Eight+Thousand and Four)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2305,24 +2630,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Engineering Workshops</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Twenty Two Crore Fifty One Lakh Eighty Four Thousand Three-Hundred And Eighty Eight</t>
+          <t>3942784 (Thirty Nine Lakh forty Two Thousand Seven hundred+eighty Four)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Eleven Crore Seventy Lakh Forty Four Thousand Four-Hundred and Ninety Six</t>
+          <t>3958151 (Thirty Nine Lakh Fifty Eight Thousand One Hundred+and Fifty One)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nine Crore Twenty Lakh Twenty Four Thousand Three</t>
+          <t>4100478 (Forty One Lakh Four Hundred and Seventy Eight)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2338,22 +2663,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Studios</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>0 (Zero)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>15288488 (One Crore Fifty Two Lakh Eighty Eight Thousand+Four Hundred and Eighty Eight)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2369,22 +2695,26 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>418995827 (Forty One Crore Eighty Nine Lakh Ninety Five+Thousand Eight Hundred Twenty Seven)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>231963109 (Twenty Three Crore Nineteen Lakh Sixty Three+Thousand One Hundred and Nine)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>130478177 (Thirteen Crore Four Lakh Seventy Eight Thousand+One Hundred and Seventy Seven)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2400,22 +2730,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2429,24 +2759,20 @@
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22015325</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>16511146</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6852170</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2462,26 +2788,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Two Crore Twenty Lakh Fifteen Thousand Three Hundred-Twenty Five</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>One Crore Sixty Five Lakh Eleven Thousand One Hundred and-Forty Six</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Sixty Eight Lakh Fifty Two Thousand One Hundred Seventy</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -2495,16 +2807,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>4234420293 (Four Hundred And Twenty Three Crore Forty+Four Lakh Twenty Thousand Two Hundred And Ninety Three)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3548525786 (Three Hundred And Fifty Four Crore Eighty Five+Lakh Twenty Five Thousand Seven Hundred And Eighty Six)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3072942536 (Three Hundred And Seven Crore Twenty Nine+Lakh Forty Two Thousand Five Hundred And Thirty Six)</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -2518,17 +2841,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+          <t>1102119354 (One Hundred And Ten Crore Twenty One Lakh+Nineteen Thousand Three Hundred And Fifty Four)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>851752013 (Eighty Five Crore Seventeen Lakh Fifty Two+Thousand And Thirteen)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2858115465 (Two Hundred And Eighty Five Crore Eighty One+Lakh Fifteen Thousand Four Hundred And Sixty Five)</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -2542,16 +2877,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>3852070 (Thirty Eight Lakh Fifty Two Thousand And Seventy)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7816097 (Seventy Eight Lakh Sixteen Thousand and Ninety+Seven)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>24611515 (Two Crore Forty Six Lakh Eleven Thousand Five+Hundred and Fifteen)</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -2565,16 +2910,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Number of faculty members entered</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2947</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -2585,6 +2938,700 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Total no. of Sponsored Projects</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Total no. of Funding Agencies</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>102504169</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>71779033</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>79179498</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ten Crore Twenty Five Lakh Four Thousand One Hundred And+Sixty Nine</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Seven Crore Seventeen Lakh Seventy Nine Thousand And+Thirty Three</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Seven Crore Ninety One Lakh Seventy Nine Thousand Four+Hundred And Ninety Eight</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Total no. of Consultancy Projects</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Total no. of Client Organizations</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>22015325</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>16511146</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6852170</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Two Crore Twenty Lakh Fifteen Thousand Three Hundred+Twenty Five</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>One Crore Sixty Five Lakh Eleven Thousand One Hundred and+Forty Six</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sixty Eight Lakh Fifty Two Thousand One Hundred and+Seventy</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Total no. of Executive Development Programs/ Management+Development Programs</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Total no. of Participants</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging+&amp; Boarding Charges)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>476926</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings in Words</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Four Lakh Seventy Six Thousand Nine Hundred and Twenty+Six</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1. Does your institute have a valid NAAC Accreditation?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Valid from</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Valid upto</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CGPA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>06-09-2003</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>15-09-2008</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>29-01-2009</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>30-01-2014</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>03-03-2015</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>03-08-2021</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>31-08-2021</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>30-08-2028</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
